--- a/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_4/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>137.5655170808411</v>
       </c>
       <c r="H30" t="n">
-        <v>77.65603776037331</v>
+        <v>77.65603776037329</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>125.2975623736014</v>
       </c>
       <c r="H36" t="n">
-        <v>87.11116785839305</v>
+        <v>87.11116785839303</v>
       </c>
     </row>
     <row r="37">
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.635440963127666</v>
+        <v>5.635440963127441</v>
       </c>
       <c r="H53" t="n">
         <v>171.3638287138409</v>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>-12.03449713978602</v>
+        <v>-12.03449713978588</v>
       </c>
       <c r="H54" t="n">
-        <v>188.8934468607641</v>
+        <v>188.8934468607644</v>
       </c>
     </row>
     <row r="55">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-52.93621094213842</v>
+        <v>-52.9362109421382</v>
       </c>
       <c r="H55" t="n">
         <v>178.1542360142666</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>113.251914680787</v>
+        <v>113.2519146807868</v>
       </c>
       <c r="H59" t="n">
         <v>121.3336067538902</v>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>156.5985887217407</v>
+        <v>156.598588721741</v>
       </c>
       <c r="H60" t="n">
-        <v>147.3931915738888</v>
+        <v>147.393191573889</v>
       </c>
     </row>
     <row r="61">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>44.683523713968</v>
+        <v>44.68352371396821</v>
       </c>
       <c r="H61" t="n">
         <v>136.1227733371452</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.651753023175772</v>
+        <v>8.651753023175994</v>
       </c>
       <c r="H62" t="n">
         <v>112.3210982581886</v>
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>192.6048536451928</v>
+        <v>192.6048536451926</v>
       </c>
       <c r="H65" t="n">
-        <v>67.8558759256276</v>
+        <v>67.85587592562754</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>58.02116834959975</v>
+        <v>58.0211683496002</v>
       </c>
       <c r="H66" t="n">
-        <v>88.74530416129987</v>
+        <v>88.74530416129994</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>30.41439169805994</v>
+        <v>30.41439169806017</v>
       </c>
       <c r="H67" t="n">
-        <v>93.76353616620889</v>
+        <v>93.76353616620894</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>137.0457320754965</v>
+        <v>137.0457320754967</v>
       </c>
       <c r="H68" t="n">
-        <v>54.3453454568719</v>
+        <v>54.34534545687197</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>235.9105900268808</v>
+        <v>235.9105900268806</v>
       </c>
       <c r="H71" t="n">
-        <v>25.7355556528463</v>
+        <v>25.73555565284621</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>215.1317368647134</v>
+        <v>215.1317368647138</v>
       </c>
       <c r="H72" t="n">
-        <v>35.39212193088614</v>
+        <v>35.39212193088637</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>173.5265417914633</v>
+        <v>173.5265417914635</v>
       </c>
       <c r="H73" t="n">
-        <v>43.08743291681302</v>
+        <v>43.08743291681314</v>
       </c>
     </row>
     <row r="74">
@@ -2658,7 +2658,7 @@
         <v>177.3761864970131</v>
       </c>
       <c r="H74" t="n">
-        <v>83.5999857902785</v>
+        <v>83.59998579027847</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>102.1910065992664</v>
+        <v>102.1910065992662</v>
       </c>
       <c r="H75" t="n">
-        <v>49.91806671251563</v>
+        <v>49.91806671251555</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>249.1600685233665</v>
+        <v>249.1600685233669</v>
       </c>
       <c r="H76" t="n">
-        <v>23.42446540063872</v>
+        <v>23.42446540063894</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>-41.3243360794654</v>
+        <v>-41.32433607946562</v>
       </c>
       <c r="H78" t="n">
-        <v>156.0799241866512</v>
+        <v>156.0799241866511</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>57.61114006883514</v>
+        <v>57.61114006883486</v>
       </c>
       <c r="H79" t="n">
-        <v>168.3392107276346</v>
+        <v>168.3392107276345</v>
       </c>
     </row>
     <row r="80">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>47.74055432198266</v>
+        <v>47.74055432198288</v>
       </c>
       <c r="H81" t="n">
         <v>136.5539148409333</v>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>40.6332523433511</v>
+        <v>40.63325234335088</v>
       </c>
       <c r="H82" t="n">
-        <v>101.5786586308414</v>
+        <v>101.5786586308413</v>
       </c>
     </row>
     <row r="83">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>18.35419695396146</v>
+        <v>18.35419695396123</v>
       </c>
       <c r="H83" t="n">
         <v>143.6620781778589</v>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>79.00804589691741</v>
+        <v>79.00804589691764</v>
       </c>
       <c r="H84" t="n">
         <v>133.4463499740156</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>82.82110637852078</v>
+        <v>82.82110637852122</v>
       </c>
       <c r="H85" t="n">
-        <v>157.271581795955</v>
+        <v>157.2715817959551</v>
       </c>
     </row>
     <row r="86">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>70.17758557070162</v>
+        <v>70.17758557070141</v>
       </c>
       <c r="H87" t="n">
         <v>117.1434274899033</v>
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>125.3031197329521</v>
+        <v>125.303119732952</v>
       </c>
       <c r="H88" t="n">
-        <v>134.3082926549472</v>
+        <v>134.3082926549471</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>151.0596417312643</v>
+        <v>151.0596417312645</v>
       </c>
       <c r="H89" t="n">
-        <v>108.2754596310034</v>
+        <v>108.2754596310035</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>171.7316811697905</v>
+        <v>171.7316811697903</v>
       </c>
       <c r="H90" t="n">
-        <v>121.1864494618013</v>
+        <v>121.1864494618012</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>-17.00474813660474</v>
+        <v>-17.0047481366043</v>
       </c>
       <c r="H91" t="n">
-        <v>114.3956910547177</v>
+        <v>114.3956910547178</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>170.1499197042029</v>
+        <v>170.1499197042033</v>
       </c>
       <c r="H92" t="n">
-        <v>79.39103445125969</v>
+        <v>79.39103445125976</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>143.7653804387904</v>
+        <v>143.7653804387906</v>
       </c>
       <c r="H93" t="n">
-        <v>95.25617530322762</v>
+        <v>95.25617530322766</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>144.2874438708542</v>
+        <v>144.2874438708539</v>
       </c>
       <c r="H94" t="n">
-        <v>55.24573626568892</v>
+        <v>55.24573626568879</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>89.51949886765318</v>
+        <v>89.51949886765364</v>
       </c>
       <c r="H95" t="n">
-        <v>59.65054431486445</v>
+        <v>59.65054431486454</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>162.6036431559349</v>
+        <v>162.6036431559347</v>
       </c>
       <c r="H97" t="n">
-        <v>77.20611772947514</v>
+        <v>77.20611772947504</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>133.3832059518329</v>
+        <v>133.3832059518327</v>
       </c>
       <c r="H98" t="n">
-        <v>66.00576729945026</v>
+        <v>66.00576729945021</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>200.6700335860462</v>
+        <v>200.6700335860466</v>
       </c>
       <c r="H99" t="n">
-        <v>54.2322527451602</v>
+        <v>54.2322527451603</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>214.9960467263498</v>
+        <v>214.99604672635</v>
       </c>
       <c r="H101" t="n">
-        <v>44.64207767783766</v>
+        <v>44.64207767783773</v>
       </c>
     </row>
   </sheetData>
